--- a/Code/Results/Cases/Case_5_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_80/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051038523525919</v>
+        <v>1.076417455671822</v>
       </c>
       <c r="D2">
-        <v>1.063005547055104</v>
+        <v>1.077045107061168</v>
       </c>
       <c r="E2">
-        <v>1.059388131780474</v>
+        <v>1.079732698394254</v>
       </c>
       <c r="F2">
-        <v>1.068996479440916</v>
+        <v>1.089451474297671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073170436319208</v>
+        <v>1.062188075918562</v>
       </c>
       <c r="J2">
-        <v>1.071792932203016</v>
+        <v>1.081317015860644</v>
       </c>
       <c r="K2">
-        <v>1.073651728311564</v>
+        <v>1.079727440783994</v>
       </c>
       <c r="L2">
-        <v>1.070077748548781</v>
+        <v>1.082407978077284</v>
       </c>
       <c r="M2">
-        <v>1.079571526337615</v>
+        <v>1.092101558835844</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.057119330182426</v>
+        <v>1.077657705553621</v>
       </c>
       <c r="D3">
-        <v>1.06780553995085</v>
+        <v>1.078034300536449</v>
       </c>
       <c r="E3">
-        <v>1.064590155465553</v>
+        <v>1.080831446594123</v>
       </c>
       <c r="F3">
-        <v>1.074426581025485</v>
+        <v>1.090603890804163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07572123824931</v>
+        <v>1.062624509904485</v>
       </c>
       <c r="J3">
-        <v>1.076165351484297</v>
+        <v>1.082215725258079</v>
       </c>
       <c r="K3">
-        <v>1.077638560838628</v>
+        <v>1.080533833884042</v>
       </c>
       <c r="L3">
-        <v>1.074458277646077</v>
+        <v>1.083324169501242</v>
       </c>
       <c r="M3">
-        <v>1.084188133001151</v>
+        <v>1.093073114497413</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.060958261288804</v>
+        <v>1.0784599984479</v>
       </c>
       <c r="D4">
-        <v>1.070838080145684</v>
+        <v>1.078674096287258</v>
       </c>
       <c r="E4">
-        <v>1.067878607452559</v>
+        <v>1.081542359179416</v>
       </c>
       <c r="F4">
-        <v>1.077859958297458</v>
+        <v>1.091349655251975</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0773207492566</v>
+        <v>1.062905487940874</v>
       </c>
       <c r="J4">
-        <v>1.078921498045907</v>
+        <v>1.082796452219712</v>
       </c>
       <c r="K4">
-        <v>1.080150602299839</v>
+        <v>1.081054726057717</v>
       </c>
       <c r="L4">
-        <v>1.077221415859025</v>
+        <v>1.083916357163479</v>
       </c>
       <c r="M4">
-        <v>1.087101430447277</v>
+        <v>1.093701259569581</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.06255025018945</v>
+        <v>1.078797228890585</v>
       </c>
       <c r="D5">
-        <v>1.072096131075149</v>
+        <v>1.078943000670841</v>
       </c>
       <c r="E5">
-        <v>1.069243294039011</v>
+        <v>1.08184121579214</v>
       </c>
       <c r="F5">
-        <v>1.079284969433802</v>
+        <v>1.091663193524329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.077981413861614</v>
+        <v>1.06302327088185</v>
       </c>
       <c r="J5">
-        <v>1.080063399754343</v>
+        <v>1.08304039995698</v>
       </c>
       <c r="K5">
-        <v>1.081191106095393</v>
+        <v>1.081273495118512</v>
       </c>
       <c r="L5">
-        <v>1.078366659586669</v>
+        <v>1.084165158499748</v>
       </c>
       <c r="M5">
-        <v>1.088309210691306</v>
+        <v>1.093965209261526</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.062816296668091</v>
+        <v>1.078853848286779</v>
       </c>
       <c r="D6">
-        <v>1.072306397088172</v>
+        <v>1.078988147071811</v>
       </c>
       <c r="E6">
-        <v>1.069471410711871</v>
+        <v>1.081891394519035</v>
       </c>
       <c r="F6">
-        <v>1.079523180506325</v>
+        <v>1.091715839123143</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078091664621994</v>
+        <v>1.063043027224346</v>
       </c>
       <c r="J6">
-        <v>1.080254165991787</v>
+        <v>1.083081348755667</v>
       </c>
       <c r="K6">
-        <v>1.08136491705679</v>
+        <v>1.081310214885764</v>
       </c>
       <c r="L6">
-        <v>1.078558010171863</v>
+        <v>1.084206924319998</v>
       </c>
       <c r="M6">
-        <v>1.088511027696046</v>
+        <v>1.094009520425923</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.060979618255536</v>
+        <v>1.078464504745275</v>
       </c>
       <c r="D7">
-        <v>1.070854955468011</v>
+        <v>1.07867768965797</v>
       </c>
       <c r="E7">
-        <v>1.06789691129717</v>
+        <v>1.081546352558017</v>
       </c>
       <c r="F7">
-        <v>1.077879070523989</v>
+        <v>1.091353844689949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077329622766523</v>
+        <v>1.062907063098316</v>
       </c>
       <c r="J7">
-        <v>1.078936821218289</v>
+        <v>1.082799712605916</v>
       </c>
       <c r="K7">
-        <v>1.080164565865745</v>
+        <v>1.081057650100283</v>
       </c>
       <c r="L7">
-        <v>1.077236782123871</v>
+        <v>1.083919682264225</v>
       </c>
       <c r="M7">
-        <v>1.087117634607549</v>
+        <v>1.093704786958195</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.053114027460476</v>
+        <v>1.076836653096697</v>
       </c>
       <c r="D8">
-        <v>1.064643379150997</v>
+        <v>1.077379467874875</v>
       </c>
       <c r="E8">
-        <v>1.061162746781379</v>
+        <v>1.080104036747776</v>
       </c>
       <c r="F8">
-        <v>1.070848745556291</v>
+        <v>1.089840924273873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074043335600897</v>
+        <v>1.062335866064666</v>
       </c>
       <c r="J8">
-        <v>1.073286195076885</v>
+        <v>1.081620904881902</v>
       </c>
       <c r="K8">
-        <v>1.075013520956354</v>
+        <v>1.080000151660504</v>
       </c>
       <c r="L8">
-        <v>1.071573381753939</v>
+        <v>1.08271774440841</v>
       </c>
       <c r="M8">
-        <v>1.081147500877562</v>
+        <v>1.092430008227801</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.038470627822115</v>
+        <v>1.073966306951664</v>
       </c>
       <c r="D9">
-        <v>1.053100100873731</v>
+        <v>1.075089659131927</v>
       </c>
       <c r="E9">
-        <v>1.048663171220278</v>
+        <v>1.077562049143758</v>
       </c>
       <c r="F9">
-        <v>1.057805310549089</v>
+        <v>1.087175476936277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.067840010133864</v>
+        <v>1.061318408194648</v>
       </c>
       <c r="J9">
-        <v>1.062734382794053</v>
+        <v>1.079537528785604</v>
       </c>
       <c r="K9">
-        <v>1.065386650496815</v>
+        <v>1.0781297812344</v>
       </c>
       <c r="L9">
-        <v>1.061013150741491</v>
+        <v>1.08059475172422</v>
       </c>
       <c r="M9">
-        <v>1.07002532944869</v>
+        <v>1.090179679142216</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.028105715675156</v>
+        <v>1.072051363401263</v>
       </c>
       <c r="D10">
-        <v>1.044948377927132</v>
+        <v>1.073561594855487</v>
       </c>
       <c r="E10">
-        <v>1.039845463208853</v>
+        <v>1.075867017092999</v>
       </c>
       <c r="F10">
-        <v>1.048607745750309</v>
+        <v>1.085398777563781</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.063394146225463</v>
+        <v>1.060632707004903</v>
       </c>
       <c r="J10">
-        <v>1.05524695193595</v>
+        <v>1.078144388348382</v>
       </c>
       <c r="K10">
-        <v>1.058550880577391</v>
+        <v>1.076878148210887</v>
       </c>
       <c r="L10">
-        <v>1.053530727085866</v>
+        <v>1.079175972116247</v>
       </c>
       <c r="M10">
-        <v>1.06215153499021</v>
+        <v>1.088676692623241</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.023455568513039</v>
+        <v>1.071221815669955</v>
       </c>
       <c r="D11">
-        <v>1.041296796219321</v>
+        <v>1.072899549814288</v>
       </c>
       <c r="E11">
-        <v>1.035897593292495</v>
+        <v>1.075132943201026</v>
       </c>
       <c r="F11">
-        <v>1.044490668050613</v>
+        <v>1.084629491800849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.061387174214904</v>
+        <v>1.060334026506331</v>
       </c>
       <c r="J11">
-        <v>1.051884106544686</v>
+        <v>1.077540123653933</v>
       </c>
       <c r="K11">
-        <v>1.05547978806283</v>
+        <v>1.076335042846465</v>
       </c>
       <c r="L11">
-        <v>1.050172864712115</v>
+        <v>1.078560789406904</v>
       </c>
       <c r="M11">
-        <v>1.058619651596538</v>
+        <v>1.088025209415536</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.021702134914922</v>
+        <v>1.070913627358374</v>
       </c>
       <c r="D12">
-        <v>1.039920845826792</v>
+        <v>1.072653577890864</v>
       </c>
       <c r="E12">
-        <v>1.034410289465388</v>
+        <v>1.074860256750282</v>
       </c>
       <c r="F12">
-        <v>1.042939743364591</v>
+        <v>1.084343748666462</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060628610434774</v>
+        <v>1.060222816804728</v>
       </c>
       <c r="J12">
-        <v>1.050615597215975</v>
+        <v>1.07731551711052</v>
       </c>
       <c r="K12">
-        <v>1.054321208528279</v>
+        <v>1.076133136669697</v>
       </c>
       <c r="L12">
-        <v>1.048906657952582</v>
+        <v>1.078332155139995</v>
       </c>
       <c r="M12">
-        <v>1.05728806637533</v>
+        <v>1.087783115791312</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.022079467303904</v>
+        <v>1.070979737434003</v>
       </c>
       <c r="D13">
-        <v>1.040216900362124</v>
+        <v>1.072706342391392</v>
       </c>
       <c r="E13">
-        <v>1.034730290349057</v>
+        <v>1.074918749792931</v>
       </c>
       <c r="F13">
-        <v>1.043273426977877</v>
+        <v>1.084405041391495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060791930459338</v>
+        <v>1.060246683736468</v>
       </c>
       <c r="J13">
-        <v>1.05088859615826</v>
+        <v>1.077363703049925</v>
       </c>
       <c r="K13">
-        <v>1.054570554504353</v>
+        <v>1.076176454065692</v>
       </c>
       <c r="L13">
-        <v>1.049179142049348</v>
+        <v>1.078381203784352</v>
       </c>
       <c r="M13">
-        <v>1.057574608769009</v>
+        <v>1.087835050415862</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.023311173950158</v>
+        <v>1.071196341912811</v>
       </c>
       <c r="D14">
-        <v>1.041183467241621</v>
+        <v>1.07287921890813</v>
       </c>
       <c r="E14">
-        <v>1.035775086974903</v>
+        <v>1.075110403245266</v>
       </c>
       <c r="F14">
-        <v>1.04436291887505</v>
+        <v>1.084605872115387</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.061324742819973</v>
+        <v>1.060324839318962</v>
       </c>
       <c r="J14">
-        <v>1.051779654609159</v>
+        <v>1.077521560793303</v>
       </c>
       <c r="K14">
-        <v>1.055384390399067</v>
+        <v>1.07631835674922</v>
       </c>
       <c r="L14">
-        <v>1.0500685937159</v>
+        <v>1.078541893047573</v>
       </c>
       <c r="M14">
-        <v>1.058509991814263</v>
+        <v>1.088005200006681</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.024066545142502</v>
+        <v>1.071329791404556</v>
       </c>
       <c r="D15">
-        <v>1.041776364530215</v>
+        <v>1.072985725987923</v>
       </c>
       <c r="E15">
-        <v>1.036416008614174</v>
+        <v>1.075228484733134</v>
       </c>
       <c r="F15">
-        <v>1.045031274901093</v>
+        <v>1.084729611012623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.061651267520414</v>
+        <v>1.060372958215378</v>
       </c>
       <c r="J15">
-        <v>1.052326054881598</v>
+        <v>1.077618801474217</v>
       </c>
       <c r="K15">
-        <v>1.055883421804094</v>
+        <v>1.076405764754833</v>
       </c>
       <c r="L15">
-        <v>1.050614064760818</v>
+        <v>1.078640881996069</v>
       </c>
       <c r="M15">
-        <v>1.059083662999762</v>
+        <v>1.088110020989794</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.028410765222396</v>
+        <v>1.072106409851537</v>
       </c>
       <c r="D16">
-        <v>1.045188047445886</v>
+        <v>1.073605524416701</v>
       </c>
       <c r="E16">
-        <v>1.040104620541922</v>
+        <v>1.075915732623059</v>
       </c>
       <c r="F16">
-        <v>1.048878028311558</v>
+        <v>1.085449833158362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.063525552002521</v>
+        <v>1.060652492129476</v>
       </c>
       <c r="J16">
-        <v>1.05546748431086</v>
+        <v>1.078184469656635</v>
       </c>
       <c r="K16">
-        <v>1.058752262125244</v>
+        <v>1.076914168188079</v>
       </c>
       <c r="L16">
-        <v>1.053750990439971</v>
+        <v>1.079216781899078</v>
       </c>
       <c r="M16">
-        <v>1.062383247002434</v>
+        <v>1.088719914954507</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.031091162958377</v>
+        <v>1.072593462666659</v>
       </c>
       <c r="D17">
-        <v>1.04729461719202</v>
+        <v>1.073994204065062</v>
       </c>
       <c r="E17">
-        <v>1.042382707755555</v>
+        <v>1.076346793448365</v>
       </c>
       <c r="F17">
-        <v>1.051254007724149</v>
+        <v>1.085901618148781</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064678788685995</v>
+        <v>1.060827362532792</v>
       </c>
       <c r="J17">
-        <v>1.057404842765563</v>
+        <v>1.078539022603782</v>
       </c>
       <c r="K17">
-        <v>1.060521278773654</v>
+        <v>1.077232770037238</v>
       </c>
       <c r="L17">
-        <v>1.055686296714858</v>
+        <v>1.079577802231443</v>
       </c>
       <c r="M17">
-        <v>1.064419327833472</v>
+        <v>1.089102302126545</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.032639087392654</v>
+        <v>1.072877517336563</v>
       </c>
       <c r="D18">
-        <v>1.048511681744153</v>
+        <v>1.074220877454962</v>
       </c>
       <c r="E18">
-        <v>1.043699060098568</v>
+        <v>1.07659821306287</v>
       </c>
       <c r="F18">
-        <v>1.052627007111666</v>
+        <v>1.08616514035448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065343608220202</v>
+        <v>1.060929191020153</v>
       </c>
       <c r="J18">
-        <v>1.058523312828201</v>
+        <v>1.078745728486331</v>
       </c>
       <c r="K18">
-        <v>1.061542473428695</v>
+        <v>1.077418495206478</v>
       </c>
       <c r="L18">
-        <v>1.056803839258999</v>
+        <v>1.079788298169972</v>
       </c>
       <c r="M18">
-        <v>1.065595214966595</v>
+        <v>1.089325276579592</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.03316431171505</v>
+        <v>1.072974366779837</v>
       </c>
       <c r="D19">
-        <v>1.04892472835571</v>
+        <v>1.074298161009387</v>
       </c>
       <c r="E19">
-        <v>1.044145836316213</v>
+        <v>1.076683938858601</v>
       </c>
       <c r="F19">
-        <v>1.053093023582017</v>
+        <v>1.086254995288318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065568986618588</v>
+        <v>1.060963883018012</v>
       </c>
       <c r="J19">
-        <v>1.058902758032063</v>
+        <v>1.078816193132276</v>
       </c>
       <c r="K19">
-        <v>1.061888902050168</v>
+        <v>1.07748180409045</v>
       </c>
       <c r="L19">
-        <v>1.057183013091896</v>
+        <v>1.07986005813352</v>
       </c>
       <c r="M19">
-        <v>1.065994210514779</v>
+        <v>1.089401294040516</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.030805198068476</v>
+        <v>1.072541210148803</v>
       </c>
       <c r="D20">
-        <v>1.047069817355855</v>
+        <v>1.073952506241922</v>
       </c>
       <c r="E20">
-        <v>1.042139584619344</v>
+        <v>1.076300545838611</v>
       </c>
       <c r="F20">
-        <v>1.051000428825954</v>
+        <v>1.085853145529122</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064555874058718</v>
+        <v>1.060808618232339</v>
       </c>
       <c r="J20">
-        <v>1.057198186791572</v>
+        <v>1.078500992665571</v>
       </c>
       <c r="K20">
-        <v>1.060332588752294</v>
+        <v>1.077198598452312</v>
       </c>
       <c r="L20">
-        <v>1.055479832849151</v>
+        <v>1.079539076568515</v>
       </c>
       <c r="M20">
-        <v>1.064202097238974</v>
+        <v>1.089061282390707</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.022949204685879</v>
+        <v>1.071132558896374</v>
       </c>
       <c r="D21">
-        <v>1.040899389123234</v>
+        <v>1.072828312720118</v>
       </c>
       <c r="E21">
-        <v>1.035468008937204</v>
+        <v>1.075053966610263</v>
       </c>
       <c r="F21">
-        <v>1.044042700942647</v>
+        <v>1.08454673237997</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.061168210734637</v>
+        <v>1.060301831811205</v>
       </c>
       <c r="J21">
-        <v>1.051517806327881</v>
+        <v>1.077475079934441</v>
       </c>
       <c r="K21">
-        <v>1.055145238149094</v>
+        <v>1.07627657472326</v>
       </c>
       <c r="L21">
-        <v>1.049807205876991</v>
+        <v>1.078494577611005</v>
       </c>
       <c r="M21">
-        <v>1.058235099205242</v>
+        <v>1.087955098069801</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.017857433475251</v>
+        <v>1.070246550863373</v>
       </c>
       <c r="D22">
-        <v>1.036905722687723</v>
+        <v>1.072121146080095</v>
       </c>
       <c r="E22">
-        <v>1.031151674120276</v>
+        <v>1.074270083644395</v>
       </c>
       <c r="F22">
-        <v>1.039541964770754</v>
+        <v>1.083725360026066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058962102147159</v>
+        <v>1.059981652919772</v>
       </c>
       <c r="J22">
-        <v>1.047833375051166</v>
+        <v>1.076829146060218</v>
       </c>
       <c r="K22">
-        <v>1.051779887597362</v>
+        <v>1.075695862147034</v>
       </c>
       <c r="L22">
-        <v>1.046130279438469</v>
+        <v>1.077837118220497</v>
       </c>
       <c r="M22">
-        <v>1.054368781455258</v>
+        <v>1.087258995016051</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.020571776070698</v>
+        <v>1.070716272920762</v>
       </c>
       <c r="D23">
-        <v>1.039034116125292</v>
+        <v>1.072496061325798</v>
       </c>
       <c r="E23">
-        <v>1.033451878032706</v>
+        <v>1.074685645722697</v>
       </c>
       <c r="F23">
-        <v>1.041940369911589</v>
+        <v>1.084160783580203</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060139101786818</v>
+        <v>1.0601515323007</v>
       </c>
       <c r="J23">
-        <v>1.049797721207629</v>
+        <v>1.077171653856724</v>
       </c>
       <c r="K23">
-        <v>1.053574177573353</v>
+        <v>1.076003804092505</v>
       </c>
       <c r="L23">
-        <v>1.048090387350562</v>
+        <v>1.078185720681349</v>
       </c>
       <c r="M23">
-        <v>1.056429717437559</v>
+        <v>1.087628069915721</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.030934461077861</v>
+        <v>1.072564820920591</v>
       </c>
       <c r="D24">
-        <v>1.047171430669419</v>
+        <v>1.073971347807368</v>
       </c>
       <c r="E24">
-        <v>1.042249479769914</v>
+        <v>1.076321443176439</v>
       </c>
       <c r="F24">
-        <v>1.051115049877185</v>
+        <v>1.085875048208242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064611438070077</v>
+        <v>1.060817088501598</v>
       </c>
       <c r="J24">
-        <v>1.057291601356523</v>
+        <v>1.078518177063161</v>
       </c>
       <c r="K24">
-        <v>1.060417882456279</v>
+        <v>1.077214039460271</v>
       </c>
       <c r="L24">
-        <v>1.05557315977803</v>
+        <v>1.079556575279357</v>
       </c>
       <c r="M24">
-        <v>1.064300290530945</v>
+        <v>1.089079817646162</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.042356539353936</v>
+        <v>1.074708594091093</v>
       </c>
       <c r="D25">
-        <v>1.056160458913778</v>
+        <v>1.075681893830619</v>
       </c>
       <c r="E25">
-        <v>1.051975406328</v>
+        <v>1.078219274156679</v>
       </c>
       <c r="F25">
-        <v>1.061260996373866</v>
+        <v>1.087864506396156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.069495822338195</v>
+        <v>1.061582745846135</v>
       </c>
       <c r="J25">
-        <v>1.065537937534323</v>
+        <v>1.080076870119241</v>
       </c>
       <c r="K25">
-        <v>1.067945307185877</v>
+        <v>1.078614143897531</v>
       </c>
       <c r="L25">
-        <v>1.06381710152317</v>
+        <v>1.081144199161514</v>
       </c>
       <c r="M25">
-        <v>1.072977323780711</v>
+        <v>1.090761925468653</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_80/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.076417455671822</v>
+        <v>1.051038523525919</v>
       </c>
       <c r="D2">
-        <v>1.077045107061168</v>
+        <v>1.063005547055104</v>
       </c>
       <c r="E2">
-        <v>1.079732698394254</v>
+        <v>1.059388131780473</v>
       </c>
       <c r="F2">
-        <v>1.089451474297671</v>
+        <v>1.068996479440915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062188075918562</v>
+        <v>1.073170436319209</v>
       </c>
       <c r="J2">
-        <v>1.081317015860644</v>
+        <v>1.071792932203016</v>
       </c>
       <c r="K2">
-        <v>1.079727440783994</v>
+        <v>1.073651728311564</v>
       </c>
       <c r="L2">
-        <v>1.082407978077284</v>
+        <v>1.07007774854878</v>
       </c>
       <c r="M2">
-        <v>1.092101558835844</v>
+        <v>1.079571526337614</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077657705553621</v>
+        <v>1.057119330182426</v>
       </c>
       <c r="D3">
-        <v>1.078034300536449</v>
+        <v>1.06780553995085</v>
       </c>
       <c r="E3">
-        <v>1.080831446594123</v>
+        <v>1.064590155465552</v>
       </c>
       <c r="F3">
-        <v>1.090603890804163</v>
+        <v>1.074426581025484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062624509904485</v>
+        <v>1.07572123824931</v>
       </c>
       <c r="J3">
-        <v>1.082215725258079</v>
+        <v>1.076165351484296</v>
       </c>
       <c r="K3">
-        <v>1.080533833884042</v>
+        <v>1.077638560838628</v>
       </c>
       <c r="L3">
-        <v>1.083324169501242</v>
+        <v>1.074458277646077</v>
       </c>
       <c r="M3">
-        <v>1.093073114497413</v>
+        <v>1.08418813300115</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0784599984479</v>
+        <v>1.060958261288805</v>
       </c>
       <c r="D4">
-        <v>1.078674096287258</v>
+        <v>1.070838080145685</v>
       </c>
       <c r="E4">
-        <v>1.081542359179416</v>
+        <v>1.06787860745256</v>
       </c>
       <c r="F4">
-        <v>1.091349655251975</v>
+        <v>1.07785995829746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062905487940874</v>
+        <v>1.077320749256601</v>
       </c>
       <c r="J4">
-        <v>1.082796452219712</v>
+        <v>1.078921498045908</v>
       </c>
       <c r="K4">
-        <v>1.081054726057717</v>
+        <v>1.08015060229984</v>
       </c>
       <c r="L4">
-        <v>1.083916357163479</v>
+        <v>1.077221415859027</v>
       </c>
       <c r="M4">
-        <v>1.093701259569581</v>
+        <v>1.087101430447278</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.078797228890585</v>
+        <v>1.062550250189449</v>
       </c>
       <c r="D5">
-        <v>1.078943000670841</v>
+        <v>1.072096131075148</v>
       </c>
       <c r="E5">
-        <v>1.08184121579214</v>
+        <v>1.06924329403901</v>
       </c>
       <c r="F5">
-        <v>1.091663193524329</v>
+        <v>1.0792849694338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06302327088185</v>
+        <v>1.077981413861613</v>
       </c>
       <c r="J5">
-        <v>1.08304039995698</v>
+        <v>1.080063399754342</v>
       </c>
       <c r="K5">
-        <v>1.081273495118512</v>
+        <v>1.081191106095392</v>
       </c>
       <c r="L5">
-        <v>1.084165158499748</v>
+        <v>1.078366659586667</v>
       </c>
       <c r="M5">
-        <v>1.093965209261526</v>
+        <v>1.088309210691304</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078853848286779</v>
+        <v>1.06281629666809</v>
       </c>
       <c r="D6">
-        <v>1.078988147071811</v>
+        <v>1.072306397088171</v>
       </c>
       <c r="E6">
-        <v>1.081891394519035</v>
+        <v>1.06947141071187</v>
       </c>
       <c r="F6">
-        <v>1.091715839123143</v>
+        <v>1.079523180506324</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063043027224346</v>
+        <v>1.078091664621993</v>
       </c>
       <c r="J6">
-        <v>1.083081348755667</v>
+        <v>1.080254165991786</v>
       </c>
       <c r="K6">
-        <v>1.081310214885764</v>
+        <v>1.081364917056789</v>
       </c>
       <c r="L6">
-        <v>1.084206924319998</v>
+        <v>1.078558010171862</v>
       </c>
       <c r="M6">
-        <v>1.094009520425923</v>
+        <v>1.088511027696045</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078464504745275</v>
+        <v>1.060979618255534</v>
       </c>
       <c r="D7">
-        <v>1.07867768965797</v>
+        <v>1.070854955468008</v>
       </c>
       <c r="E7">
-        <v>1.081546352558017</v>
+        <v>1.067896911297168</v>
       </c>
       <c r="F7">
-        <v>1.091353844689949</v>
+        <v>1.077879070523986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062907063098316</v>
+        <v>1.077329622766521</v>
       </c>
       <c r="J7">
-        <v>1.082799712605916</v>
+        <v>1.078936821218287</v>
       </c>
       <c r="K7">
-        <v>1.081057650100283</v>
+        <v>1.080164565865742</v>
       </c>
       <c r="L7">
-        <v>1.083919682264225</v>
+        <v>1.077236782123868</v>
       </c>
       <c r="M7">
-        <v>1.093704786958195</v>
+        <v>1.087117634607546</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.076836653096697</v>
+        <v>1.053114027460477</v>
       </c>
       <c r="D8">
-        <v>1.077379467874875</v>
+        <v>1.064643379150997</v>
       </c>
       <c r="E8">
-        <v>1.080104036747776</v>
+        <v>1.061162746781379</v>
       </c>
       <c r="F8">
-        <v>1.089840924273873</v>
+        <v>1.070848745556292</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062335866064666</v>
+        <v>1.074043335600898</v>
       </c>
       <c r="J8">
-        <v>1.081620904881902</v>
+        <v>1.073286195076885</v>
       </c>
       <c r="K8">
-        <v>1.080000151660504</v>
+        <v>1.075013520956355</v>
       </c>
       <c r="L8">
-        <v>1.08271774440841</v>
+        <v>1.071573381753939</v>
       </c>
       <c r="M8">
-        <v>1.092430008227801</v>
+        <v>1.081147500877562</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.073966306951664</v>
+        <v>1.038470627822116</v>
       </c>
       <c r="D9">
-        <v>1.075089659131927</v>
+        <v>1.053100100873732</v>
       </c>
       <c r="E9">
-        <v>1.077562049143758</v>
+        <v>1.048663171220279</v>
       </c>
       <c r="F9">
-        <v>1.087175476936277</v>
+        <v>1.057805310549091</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061318408194648</v>
+        <v>1.067840010133864</v>
       </c>
       <c r="J9">
-        <v>1.079537528785604</v>
+        <v>1.062734382794053</v>
       </c>
       <c r="K9">
-        <v>1.0781297812344</v>
+        <v>1.065386650496816</v>
       </c>
       <c r="L9">
-        <v>1.08059475172422</v>
+        <v>1.061013150741492</v>
       </c>
       <c r="M9">
-        <v>1.090179679142216</v>
+        <v>1.070025329448691</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072051363401263</v>
+        <v>1.028105715675157</v>
       </c>
       <c r="D10">
-        <v>1.073561594855487</v>
+        <v>1.044948377927133</v>
       </c>
       <c r="E10">
-        <v>1.075867017092999</v>
+        <v>1.039845463208854</v>
       </c>
       <c r="F10">
-        <v>1.085398777563781</v>
+        <v>1.048607745750309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060632707004903</v>
+        <v>1.063394146225463</v>
       </c>
       <c r="J10">
-        <v>1.078144388348382</v>
+        <v>1.05524695193595</v>
       </c>
       <c r="K10">
-        <v>1.076878148210887</v>
+        <v>1.058550880577392</v>
       </c>
       <c r="L10">
-        <v>1.079175972116247</v>
+        <v>1.053530727085866</v>
       </c>
       <c r="M10">
-        <v>1.088676692623241</v>
+        <v>1.06215153499021</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.071221815669955</v>
+        <v>1.023455568513039</v>
       </c>
       <c r="D11">
-        <v>1.072899549814288</v>
+        <v>1.041296796219321</v>
       </c>
       <c r="E11">
-        <v>1.075132943201026</v>
+        <v>1.035897593292495</v>
       </c>
       <c r="F11">
-        <v>1.084629491800849</v>
+        <v>1.044490668050613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060334026506331</v>
+        <v>1.061387174214904</v>
       </c>
       <c r="J11">
-        <v>1.077540123653933</v>
+        <v>1.051884106544686</v>
       </c>
       <c r="K11">
-        <v>1.076335042846465</v>
+        <v>1.055479788062829</v>
       </c>
       <c r="L11">
-        <v>1.078560789406904</v>
+        <v>1.050172864712115</v>
       </c>
       <c r="M11">
-        <v>1.088025209415536</v>
+        <v>1.058619651596538</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.070913627358374</v>
+        <v>1.021702134914922</v>
       </c>
       <c r="D12">
-        <v>1.072653577890864</v>
+        <v>1.039920845826792</v>
       </c>
       <c r="E12">
-        <v>1.074860256750282</v>
+        <v>1.034410289465388</v>
       </c>
       <c r="F12">
-        <v>1.084343748666462</v>
+        <v>1.042939743364591</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060222816804728</v>
+        <v>1.060628610434774</v>
       </c>
       <c r="J12">
-        <v>1.07731551711052</v>
+        <v>1.050615597215975</v>
       </c>
       <c r="K12">
-        <v>1.076133136669697</v>
+        <v>1.054321208528279</v>
       </c>
       <c r="L12">
-        <v>1.078332155139995</v>
+        <v>1.048906657952582</v>
       </c>
       <c r="M12">
-        <v>1.087783115791312</v>
+        <v>1.05728806637533</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.070979737434003</v>
+        <v>1.022079467303903</v>
       </c>
       <c r="D13">
-        <v>1.072706342391392</v>
+        <v>1.040216900362123</v>
       </c>
       <c r="E13">
-        <v>1.074918749792931</v>
+        <v>1.034730290349057</v>
       </c>
       <c r="F13">
-        <v>1.084405041391495</v>
+        <v>1.043273426977877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060246683736468</v>
+        <v>1.060791930459338</v>
       </c>
       <c r="J13">
-        <v>1.077363703049925</v>
+        <v>1.05088859615826</v>
       </c>
       <c r="K13">
-        <v>1.076176454065692</v>
+        <v>1.054570554504353</v>
       </c>
       <c r="L13">
-        <v>1.078381203784352</v>
+        <v>1.049179142049348</v>
       </c>
       <c r="M13">
-        <v>1.087835050415862</v>
+        <v>1.057574608769009</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.071196341912811</v>
+        <v>1.023311173950158</v>
       </c>
       <c r="D14">
-        <v>1.07287921890813</v>
+        <v>1.04118346724162</v>
       </c>
       <c r="E14">
-        <v>1.075110403245266</v>
+        <v>1.035775086974903</v>
       </c>
       <c r="F14">
-        <v>1.084605872115387</v>
+        <v>1.044362918875049</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060324839318962</v>
+        <v>1.061324742819973</v>
       </c>
       <c r="J14">
-        <v>1.077521560793303</v>
+        <v>1.051779654609159</v>
       </c>
       <c r="K14">
-        <v>1.07631835674922</v>
+        <v>1.055384390399066</v>
       </c>
       <c r="L14">
-        <v>1.078541893047573</v>
+        <v>1.0500685937159</v>
       </c>
       <c r="M14">
-        <v>1.088005200006681</v>
+        <v>1.058509991814262</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071329791404556</v>
+        <v>1.024066545142502</v>
       </c>
       <c r="D15">
-        <v>1.072985725987923</v>
+        <v>1.041776364530216</v>
       </c>
       <c r="E15">
-        <v>1.075228484733134</v>
+        <v>1.036416008614174</v>
       </c>
       <c r="F15">
-        <v>1.084729611012623</v>
+        <v>1.045031274901093</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060372958215378</v>
+        <v>1.061651267520414</v>
       </c>
       <c r="J15">
-        <v>1.077618801474217</v>
+        <v>1.052326054881598</v>
       </c>
       <c r="K15">
-        <v>1.076405764754833</v>
+        <v>1.055883421804094</v>
       </c>
       <c r="L15">
-        <v>1.078640881996069</v>
+        <v>1.050614064760818</v>
       </c>
       <c r="M15">
-        <v>1.088110020989794</v>
+        <v>1.059083662999762</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.072106409851537</v>
+        <v>1.028410765222394</v>
       </c>
       <c r="D16">
-        <v>1.073605524416701</v>
+        <v>1.045188047445884</v>
       </c>
       <c r="E16">
-        <v>1.075915732623059</v>
+        <v>1.04010462054192</v>
       </c>
       <c r="F16">
-        <v>1.085449833158362</v>
+        <v>1.048878028311556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060652492129476</v>
+        <v>1.06352555200252</v>
       </c>
       <c r="J16">
-        <v>1.078184469656635</v>
+        <v>1.055467484310858</v>
       </c>
       <c r="K16">
-        <v>1.076914168188079</v>
+        <v>1.058752262125243</v>
       </c>
       <c r="L16">
-        <v>1.079216781899078</v>
+        <v>1.053750990439969</v>
       </c>
       <c r="M16">
-        <v>1.088719914954507</v>
+        <v>1.062383247002432</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.072593462666659</v>
+        <v>1.031091162958376</v>
       </c>
       <c r="D17">
-        <v>1.073994204065062</v>
+        <v>1.047294617192019</v>
       </c>
       <c r="E17">
-        <v>1.076346793448365</v>
+        <v>1.042382707755554</v>
       </c>
       <c r="F17">
-        <v>1.085901618148781</v>
+        <v>1.051254007724148</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060827362532792</v>
+        <v>1.064678788685995</v>
       </c>
       <c r="J17">
-        <v>1.078539022603782</v>
+        <v>1.057404842765563</v>
       </c>
       <c r="K17">
-        <v>1.077232770037238</v>
+        <v>1.060521278773654</v>
       </c>
       <c r="L17">
-        <v>1.079577802231443</v>
+        <v>1.055686296714857</v>
       </c>
       <c r="M17">
-        <v>1.089102302126545</v>
+        <v>1.064419327833471</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072877517336563</v>
+        <v>1.032639087392654</v>
       </c>
       <c r="D18">
-        <v>1.074220877454962</v>
+        <v>1.048511681744153</v>
       </c>
       <c r="E18">
-        <v>1.07659821306287</v>
+        <v>1.043699060098568</v>
       </c>
       <c r="F18">
-        <v>1.08616514035448</v>
+        <v>1.052627007111666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060929191020153</v>
+        <v>1.065343608220202</v>
       </c>
       <c r="J18">
-        <v>1.078745728486331</v>
+        <v>1.058523312828201</v>
       </c>
       <c r="K18">
-        <v>1.077418495206478</v>
+        <v>1.061542473428696</v>
       </c>
       <c r="L18">
-        <v>1.079788298169972</v>
+        <v>1.056803839258999</v>
       </c>
       <c r="M18">
-        <v>1.089325276579592</v>
+        <v>1.065595214966595</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.072974366779837</v>
+        <v>1.03316431171505</v>
       </c>
       <c r="D19">
-        <v>1.074298161009387</v>
+        <v>1.04892472835571</v>
       </c>
       <c r="E19">
-        <v>1.076683938858601</v>
+        <v>1.044145836316213</v>
       </c>
       <c r="F19">
-        <v>1.086254995288318</v>
+        <v>1.053093023582017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060963883018012</v>
+        <v>1.065568986618588</v>
       </c>
       <c r="J19">
-        <v>1.078816193132276</v>
+        <v>1.058902758032063</v>
       </c>
       <c r="K19">
-        <v>1.07748180409045</v>
+        <v>1.061888902050167</v>
       </c>
       <c r="L19">
-        <v>1.07986005813352</v>
+        <v>1.057183013091896</v>
       </c>
       <c r="M19">
-        <v>1.089401294040516</v>
+        <v>1.065994210514779</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.072541210148803</v>
+        <v>1.030805198068476</v>
       </c>
       <c r="D20">
-        <v>1.073952506241922</v>
+        <v>1.047069817355854</v>
       </c>
       <c r="E20">
-        <v>1.076300545838611</v>
+        <v>1.042139584619343</v>
       </c>
       <c r="F20">
-        <v>1.085853145529122</v>
+        <v>1.051000428825954</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060808618232339</v>
+        <v>1.064555874058718</v>
       </c>
       <c r="J20">
-        <v>1.078500992665571</v>
+        <v>1.057198186791572</v>
       </c>
       <c r="K20">
-        <v>1.077198598452312</v>
+        <v>1.060332588752293</v>
       </c>
       <c r="L20">
-        <v>1.079539076568515</v>
+        <v>1.055479832849151</v>
       </c>
       <c r="M20">
-        <v>1.089061282390707</v>
+        <v>1.064202097238973</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.071132558896374</v>
+        <v>1.022949204685879</v>
       </c>
       <c r="D21">
-        <v>1.072828312720118</v>
+        <v>1.040899389123235</v>
       </c>
       <c r="E21">
-        <v>1.075053966610263</v>
+        <v>1.035468008937205</v>
       </c>
       <c r="F21">
-        <v>1.08454673237997</v>
+        <v>1.044042700942648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060301831811205</v>
+        <v>1.061168210734637</v>
       </c>
       <c r="J21">
-        <v>1.077475079934441</v>
+        <v>1.051517806327881</v>
       </c>
       <c r="K21">
-        <v>1.07627657472326</v>
+        <v>1.055145238149095</v>
       </c>
       <c r="L21">
-        <v>1.078494577611005</v>
+        <v>1.049807205876991</v>
       </c>
       <c r="M21">
-        <v>1.087955098069801</v>
+        <v>1.058235099205242</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.070246550863373</v>
+        <v>1.017857433475251</v>
       </c>
       <c r="D22">
-        <v>1.072121146080095</v>
+        <v>1.036905722687724</v>
       </c>
       <c r="E22">
-        <v>1.074270083644395</v>
+        <v>1.031151674120276</v>
       </c>
       <c r="F22">
-        <v>1.083725360026066</v>
+        <v>1.039541964770754</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059981652919772</v>
+        <v>1.058962102147159</v>
       </c>
       <c r="J22">
-        <v>1.076829146060218</v>
+        <v>1.047833375051166</v>
       </c>
       <c r="K22">
-        <v>1.075695862147034</v>
+        <v>1.051779887597362</v>
       </c>
       <c r="L22">
-        <v>1.077837118220497</v>
+        <v>1.046130279438469</v>
       </c>
       <c r="M22">
-        <v>1.087258995016051</v>
+        <v>1.054368781455258</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.070716272920762</v>
+        <v>1.020571776070698</v>
       </c>
       <c r="D23">
-        <v>1.072496061325798</v>
+        <v>1.039034116125292</v>
       </c>
       <c r="E23">
-        <v>1.074685645722697</v>
+        <v>1.033451878032706</v>
       </c>
       <c r="F23">
-        <v>1.084160783580203</v>
+        <v>1.041940369911589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0601515323007</v>
+        <v>1.060139101786819</v>
       </c>
       <c r="J23">
-        <v>1.077171653856724</v>
+        <v>1.049797721207629</v>
       </c>
       <c r="K23">
-        <v>1.076003804092505</v>
+        <v>1.053574177573353</v>
       </c>
       <c r="L23">
-        <v>1.078185720681349</v>
+        <v>1.048090387350562</v>
       </c>
       <c r="M23">
-        <v>1.087628069915721</v>
+        <v>1.056429717437559</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.072564820920591</v>
+        <v>1.03093446107786</v>
       </c>
       <c r="D24">
-        <v>1.073971347807368</v>
+        <v>1.047171430669418</v>
       </c>
       <c r="E24">
-        <v>1.076321443176439</v>
+        <v>1.042249479769913</v>
       </c>
       <c r="F24">
-        <v>1.085875048208242</v>
+        <v>1.051115049877185</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060817088501598</v>
+        <v>1.064611438070077</v>
       </c>
       <c r="J24">
-        <v>1.078518177063161</v>
+        <v>1.057291601356522</v>
       </c>
       <c r="K24">
-        <v>1.077214039460271</v>
+        <v>1.060417882456278</v>
       </c>
       <c r="L24">
-        <v>1.079556575279357</v>
+        <v>1.055573159778029</v>
       </c>
       <c r="M24">
-        <v>1.089079817646162</v>
+        <v>1.064300290530945</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.074708594091093</v>
+        <v>1.042356539353936</v>
       </c>
       <c r="D25">
-        <v>1.075681893830619</v>
+        <v>1.056160458913778</v>
       </c>
       <c r="E25">
-        <v>1.078219274156679</v>
+        <v>1.051975406328</v>
       </c>
       <c r="F25">
-        <v>1.087864506396156</v>
+        <v>1.061260996373866</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061582745846135</v>
+        <v>1.069495822338195</v>
       </c>
       <c r="J25">
-        <v>1.080076870119241</v>
+        <v>1.065537937534323</v>
       </c>
       <c r="K25">
-        <v>1.078614143897531</v>
+        <v>1.067945307185877</v>
       </c>
       <c r="L25">
-        <v>1.081144199161514</v>
+        <v>1.063817101523171</v>
       </c>
       <c r="M25">
-        <v>1.090761925468653</v>
+        <v>1.072977323780711</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
